--- a/train.xlsx
+++ b/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C253"/>
+  <dimension ref="A1:C501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,21 +452,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.759387741750414</v>
+        <v>0.1483321297178073</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7466729692021253</v>
+        <v>0.0482908044209797</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1592167862821225</v>
+        <v>0.1711587122997184</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2303466042741732</v>
+        <v>0.2570937421662466</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -474,87 +474,87 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.2650784142244249</v>
+        <v>0.7046680201695342</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1837313971167461</v>
+        <v>0.8129102073823707</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.791827826917253</v>
+        <v>0.2256051851165111</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7775407209585465</v>
+        <v>0.02393846226246668</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1821020118479365</v>
+        <v>0.7838335329329349</v>
       </c>
       <c r="B6" t="n">
-        <v>0.02548828567152251</v>
+        <v>0.8516904690770801</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.1765462959838642</v>
+        <v>0.7767550476772423</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02631070094183184</v>
+        <v>0.8722769003558021</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.8464637122399522</v>
+        <v>0.06389044643509807</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8772952448100416</v>
+        <v>0.0189088323304844</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1799398006195662</v>
+        <v>0.8695160379944191</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1984758300714748</v>
+        <v>0.8833738030901654</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.0897870238605752</v>
+        <v>0.7617715022042458</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2738004072383334</v>
+        <v>0.8981565332071585</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1681779225313831</v>
+        <v>0.1581895202862553</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1727533780401338</v>
+        <v>0.09279136518505583</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -562,10 +562,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.8539907554096</v>
+        <v>0.8558974463715463</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8931749478602994</v>
+        <v>0.751366974534563</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -573,32 +573,32 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.04542647154020205</v>
+        <v>0.840722478096962</v>
       </c>
       <c r="B13" t="n">
-        <v>0.01173991937896606</v>
+        <v>0.7957353813159582</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.2630531268432635</v>
+        <v>0.8142324768632886</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1597565246711626</v>
+        <v>0.7931595586670186</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.01668724484837518</v>
+        <v>0.2969143697436968</v>
       </c>
       <c r="B15" t="n">
-        <v>0.04516421588125719</v>
+        <v>0.02877848114682153</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -606,21 +606,21 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.8043033995443872</v>
+        <v>0.2092976948288361</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7222259637477781</v>
+        <v>0.05770452095451912</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.2576930166537417</v>
+        <v>0.03132749648879737</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2663406408277305</v>
+        <v>0.09630496355240448</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -628,21 +628,21 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.05242405451998187</v>
+        <v>0.8435885628986259</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1428060255403585</v>
+        <v>0.877551803591276</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.799505903412693</v>
+        <v>0.8363637755026461</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7310964795823509</v>
+        <v>0.8598989660984896</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -650,32 +650,32 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.8504021992227651</v>
+        <v>0.02985568989720321</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7343162295172851</v>
+        <v>0.1685449374583084</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.8624643739795186</v>
+        <v>0.01915602033649368</v>
       </c>
       <c r="B21" t="n">
-        <v>0.8747364860916753</v>
+        <v>0.2244024893115734</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.7849146487567501</v>
+        <v>0.8578698984884165</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7110410623827125</v>
+        <v>0.729159487648025</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -683,21 +683,21 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.08891308388532866</v>
+        <v>0.8446758279237858</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1065271030590891</v>
+        <v>0.8238681418829413</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.1904832364237596</v>
+        <v>0.2443461332331702</v>
       </c>
       <c r="B24" t="n">
-        <v>0.2802256898314611</v>
+        <v>0.2400557515654946</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -705,10 +705,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.04235919877569013</v>
+        <v>0.2982964106361701</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1288623336688889</v>
+        <v>0.08233630937105177</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -716,54 +716,54 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.852783321416087</v>
+        <v>0.1606854888124953</v>
       </c>
       <c r="B26" t="n">
-        <v>0.7161197403830296</v>
+        <v>0.2883423052816451</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.2979057942348714</v>
+        <v>0.8424847544369831</v>
       </c>
       <c r="B27" t="n">
-        <v>0.05906587887645397</v>
+        <v>0.7137421298104838</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.1961861727081517</v>
+        <v>0.7095260364709198</v>
       </c>
       <c r="B28" t="n">
-        <v>0.2287707285275779</v>
+        <v>0.8879540231972252</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.1957454975385007</v>
+        <v>0.7619413574932458</v>
       </c>
       <c r="B29" t="n">
-        <v>0.2997197568882186</v>
+        <v>0.8690940405258183</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.8442425303373934</v>
+        <v>0.7007271021251628</v>
       </c>
       <c r="B30" t="n">
-        <v>0.7556117604333148</v>
+        <v>0.7877850974935482</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
@@ -771,10 +771,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.1892564584418663</v>
+        <v>0.2053407240083763</v>
       </c>
       <c r="B31" t="n">
-        <v>0.04673239810776512</v>
+        <v>0.1300916901497386</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.7268801180607519</v>
+        <v>0.7585008824473849</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8436655997351343</v>
+        <v>0.7090087901465731</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
@@ -793,21 +793,21 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.2475737914154836</v>
+        <v>0.7726504844385401</v>
       </c>
       <c r="B33" t="n">
-        <v>0.2153559735497355</v>
+        <v>0.8732140401830714</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.7418789222403187</v>
+        <v>0.808684989289127</v>
       </c>
       <c r="B34" t="n">
-        <v>0.8991762831880141</v>
+        <v>0.7214028992834848</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
@@ -815,10 +815,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.1362446505250456</v>
+        <v>0.2260755564320511</v>
       </c>
       <c r="B35" t="n">
-        <v>0.152438587922452</v>
+        <v>0.1284952251226119</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -826,21 +826,21 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.7354060017343999</v>
+        <v>0.1030964632358813</v>
       </c>
       <c r="B36" t="n">
-        <v>0.8521256284664949</v>
+        <v>0.1789073053118695</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.01790766965442931</v>
+        <v>0.2200026145344215</v>
       </c>
       <c r="B37" t="n">
-        <v>0.03501883486825706</v>
+        <v>0.1362938354228591</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.01826426365829408</v>
+        <v>0.2740143420379347</v>
       </c>
       <c r="B38" t="n">
-        <v>0.1328567975600843</v>
+        <v>0.2761201613149213</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.7137577292915105</v>
+        <v>0.8864383847508789</v>
       </c>
       <c r="B39" t="n">
-        <v>0.8501261491438913</v>
+        <v>0.8212405558769594</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
@@ -870,10 +870,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.2841144947224432</v>
+        <v>0.2162001145339845</v>
       </c>
       <c r="B40" t="n">
-        <v>0.216391491184544</v>
+        <v>0.1260278635320581</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -881,10 +881,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.7133526938126346</v>
+        <v>0.8524846140703062</v>
       </c>
       <c r="B41" t="n">
-        <v>0.7101644786386205</v>
+        <v>0.7388101142964059</v>
       </c>
       <c r="C41" t="n">
         <v>1</v>
@@ -892,21 +892,21 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.749219754608049</v>
+        <v>0.2856502789520471</v>
       </c>
       <c r="B42" t="n">
-        <v>0.8856466859004384</v>
+        <v>0.1148568753050433</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.7689787995132789</v>
+        <v>0.8137315000807681</v>
       </c>
       <c r="B43" t="n">
-        <v>0.8016441115913762</v>
+        <v>0.7278570167520318</v>
       </c>
       <c r="C43" t="n">
         <v>1</v>
@@ -914,10 +914,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.7735761921516652</v>
+        <v>0.8026955772735509</v>
       </c>
       <c r="B44" t="n">
-        <v>0.723936389206029</v>
+        <v>0.7328028205725403</v>
       </c>
       <c r="C44" t="n">
         <v>1</v>
@@ -925,10 +925,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.7430759551036699</v>
+        <v>0.8406176566440859</v>
       </c>
       <c r="B45" t="n">
-        <v>0.7964128644304068</v>
+        <v>0.8242788755302968</v>
       </c>
       <c r="C45" t="n">
         <v>1</v>
@@ -936,10 +936,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.7319029803286098</v>
+        <v>0.711352400122176</v>
       </c>
       <c r="B46" t="n">
-        <v>0.7219378552640894</v>
+        <v>0.7789068685733906</v>
       </c>
       <c r="C46" t="n">
         <v>1</v>
@@ -947,10 +947,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.1889483125903831</v>
+        <v>0.07852770916423236</v>
       </c>
       <c r="B47" t="n">
-        <v>0.2339126263807328</v>
+        <v>0.08927222373350863</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.2599902979784247</v>
+        <v>0.1603743015573369</v>
       </c>
       <c r="B48" t="n">
-        <v>0.05325976696328004</v>
+        <v>0.08353844027007258</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -969,21 +969,21 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.8642705537801414</v>
+        <v>0.2372205009462644</v>
       </c>
       <c r="B49" t="n">
-        <v>0.7911151044172692</v>
+        <v>0.2464006427907361</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.8325543271720852</v>
+        <v>0.7595306842940879</v>
       </c>
       <c r="B50" t="n">
-        <v>0.7790429972098122</v>
+        <v>0.8148020571393541</v>
       </c>
       <c r="C50" t="n">
         <v>1</v>
@@ -991,10 +991,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.1367411595973334</v>
+        <v>0.2020770809500396</v>
       </c>
       <c r="B51" t="n">
-        <v>0.1177982594466823</v>
+        <v>0.03317881688443486</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1002,10 +1002,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.2058956339822266</v>
+        <v>0.1077549988779465</v>
       </c>
       <c r="B52" t="n">
-        <v>0.1490311735168768</v>
+        <v>0.2410838612621774</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1013,21 +1013,21 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.8678983484214975</v>
+        <v>0.2695626636234064</v>
       </c>
       <c r="B53" t="n">
-        <v>0.7530860785394672</v>
+        <v>0.2207379167382287</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.7239803564145278</v>
+        <v>0.861902855240162</v>
       </c>
       <c r="B54" t="n">
-        <v>0.7667583693803239</v>
+        <v>0.8027953239477702</v>
       </c>
       <c r="C54" t="n">
         <v>1</v>
@@ -1035,32 +1035,32 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.05429376925427341</v>
+        <v>0.8676849145804104</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1285591367041474</v>
+        <v>0.7268691283832883</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.205823486894099</v>
+        <v>0.8963501840732114</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1245510572665502</v>
+        <v>0.7252873807176796</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.2997714646978484</v>
+        <v>0.2666330170725642</v>
       </c>
       <c r="B57" t="n">
-        <v>0.2941428858100229</v>
+        <v>0.2126338937316222</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1068,10 +1068,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.8763476482067474</v>
+        <v>0.8340496026885527</v>
       </c>
       <c r="B58" t="n">
-        <v>0.765655010754664</v>
+        <v>0.8428996966245661</v>
       </c>
       <c r="C58" t="n">
         <v>1</v>
@@ -1079,43 +1079,43 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.7921250011727847</v>
+        <v>0.2026595432277537</v>
       </c>
       <c r="B59" t="n">
-        <v>0.7147156397325418</v>
+        <v>0.06020755991240401</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.1611627560662633</v>
+        <v>0.7657436841927343</v>
       </c>
       <c r="B60" t="n">
-        <v>0.25281424706518</v>
+        <v>0.8490666959345166</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.252218393747805</v>
+        <v>0.7611698540585365</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1225814907430523</v>
+        <v>0.8760029591532552</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.193373388351557</v>
+        <v>0.1580780110209794</v>
       </c>
       <c r="B62" t="n">
-        <v>0.02637527202857656</v>
+        <v>0.09192221636812829</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -1123,10 +1123,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.2710539432664271</v>
+        <v>0.2512498115259694</v>
       </c>
       <c r="B63" t="n">
-        <v>0.03520869423543458</v>
+        <v>0.25665535194103</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -1134,21 +1134,21 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.07797579844642864</v>
+        <v>0.708664662205451</v>
       </c>
       <c r="B64" t="n">
-        <v>0.00854045659811724</v>
+        <v>0.8688371481835987</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.8457215290452732</v>
+        <v>0.7350522349346864</v>
       </c>
       <c r="B65" t="n">
-        <v>0.7746503368487914</v>
+        <v>0.7249812525676363</v>
       </c>
       <c r="C65" t="n">
         <v>1</v>
@@ -1156,32 +1156,32 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.7135415671508137</v>
+        <v>0.08470468096121143</v>
       </c>
       <c r="B66" t="n">
-        <v>0.8298999913046459</v>
+        <v>0.04840252118631035</v>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.1833824167250709</v>
+        <v>0.7721689659701749</v>
       </c>
       <c r="B67" t="n">
-        <v>0.211876507226595</v>
+        <v>0.7348587208568421</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.06420451161726744</v>
+        <v>0.2307094807073888</v>
       </c>
       <c r="B68" t="n">
-        <v>0.164599444260371</v>
+        <v>0.1550704150917952</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -1189,43 +1189,43 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.1400398673678506</v>
+        <v>0.7357441624823959</v>
       </c>
       <c r="B69" t="n">
-        <v>0.1284383170782598</v>
+        <v>0.7444162667684441</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.8484393088627131</v>
+        <v>0.1193558654124576</v>
       </c>
       <c r="B70" t="n">
-        <v>0.7405521420518286</v>
+        <v>0.01244358906843048</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.8427925061841275</v>
+        <v>0.2860010392771151</v>
       </c>
       <c r="B71" t="n">
-        <v>0.862088509812116</v>
+        <v>0.2565272926911695</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.7660753821184084</v>
+        <v>0.7926131762651905</v>
       </c>
       <c r="B72" t="n">
-        <v>0.8439858473941784</v>
+        <v>0.8054052271243292</v>
       </c>
       <c r="C72" t="n">
         <v>1</v>
@@ -1233,21 +1233,21 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.03615838918296409</v>
+        <v>0.7668523772219226</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0233009555126966</v>
+        <v>0.8566078359219156</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.1016642599629862</v>
+        <v>0.2689750779729073</v>
       </c>
       <c r="B74" t="n">
-        <v>0.1277809930062846</v>
+        <v>0.2729317070119572</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -1255,21 +1255,21 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.8928267205907996</v>
+        <v>0.2094295469250804</v>
       </c>
       <c r="B75" t="n">
-        <v>0.8008690260937646</v>
+        <v>0.1965620966004733</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.7607711044136704</v>
+        <v>0.7951354016044365</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8074458705200156</v>
+        <v>0.7774357250094001</v>
       </c>
       <c r="C76" t="n">
         <v>1</v>
@@ -1277,21 +1277,21 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.8291225668524649</v>
+        <v>0.2414941940711433</v>
       </c>
       <c r="B77" t="n">
-        <v>0.7449939950943353</v>
+        <v>0.228454855451431</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.1738039456340979</v>
+        <v>0.06812645179034743</v>
       </c>
       <c r="B78" t="n">
-        <v>0.287078645153902</v>
+        <v>0.1973334436504143</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -1299,10 +1299,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.163950375048716</v>
+        <v>0.1811584726977412</v>
       </c>
       <c r="B79" t="n">
-        <v>0.1305533678425477</v>
+        <v>0.0118750999491647</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -1310,43 +1310,43 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.7253494514778707</v>
+        <v>0.0722408970998136</v>
       </c>
       <c r="B80" t="n">
-        <v>0.8897358470251124</v>
+        <v>0.1502617772961741</v>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.07164285192866267</v>
+        <v>0.7130839984064956</v>
       </c>
       <c r="B81" t="n">
-        <v>0.04640649199222149</v>
+        <v>0.8626022979109158</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.1537147399911462</v>
+        <v>0.7972616156404284</v>
       </c>
       <c r="B82" t="n">
-        <v>0.1558475267992731</v>
+        <v>0.8226209730193854</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.081002629610822</v>
+        <v>0.09435598440406313</v>
       </c>
       <c r="B83" t="n">
-        <v>0.07778561059046731</v>
+        <v>0.1288637306826688</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -1354,21 +1354,21 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.8447039626283863</v>
+        <v>0.1657347860972729</v>
       </c>
       <c r="B84" t="n">
-        <v>0.7196641475476035</v>
+        <v>0.08095659298596104</v>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.2711184494412748</v>
+        <v>0.105150847287443</v>
       </c>
       <c r="B85" t="n">
-        <v>0.1974493353373367</v>
+        <v>0.1952148822855346</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -1376,21 +1376,21 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.8238807265748607</v>
+        <v>0.1265336410601657</v>
       </c>
       <c r="B86" t="n">
-        <v>0.7822001003690909</v>
+        <v>0.1920334715480492</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.2660229463241024</v>
+        <v>0.03326383594965482</v>
       </c>
       <c r="B87" t="n">
-        <v>0.1273406509561379</v>
+        <v>0.2305794965666868</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -1398,76 +1398,76 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.274914724226835</v>
+        <v>0.8074713656033017</v>
       </c>
       <c r="B88" t="n">
-        <v>0.1593921637476247</v>
+        <v>0.7902218128921619</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.2631367740145008</v>
+        <v>0.7903847771592727</v>
       </c>
       <c r="B89" t="n">
-        <v>0.2183391810452555</v>
+        <v>0.8611032464469975</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.1764552574712116</v>
+        <v>0.8869741965190354</v>
       </c>
       <c r="B90" t="n">
-        <v>0.11810935653854</v>
+        <v>0.7077443376656763</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.8422879068784079</v>
+        <v>0.03423537803309658</v>
       </c>
       <c r="B91" t="n">
-        <v>0.7684011232834557</v>
+        <v>0.2919650144055481</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.8404055919629271</v>
+        <v>0.207996527900571</v>
       </c>
       <c r="B92" t="n">
-        <v>0.7127575721420759</v>
+        <v>0.286296972877225</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.8585251604066181</v>
+        <v>0.158293985176494</v>
       </c>
       <c r="B93" t="n">
-        <v>0.8608883302706158</v>
+        <v>0.06153593331054547</v>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.1082102417251524</v>
+        <v>0.1229292929041544</v>
       </c>
       <c r="B94" t="n">
-        <v>0.04861472272499512</v>
+        <v>0.03648194901663127</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -1475,21 +1475,21 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.2317100155191645</v>
+        <v>0.8007910580627269</v>
       </c>
       <c r="B95" t="n">
-        <v>0.06544037898609002</v>
+        <v>0.7765808566974384</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.01120270589263785</v>
+        <v>0.211328625607339</v>
       </c>
       <c r="B96" t="n">
-        <v>0.07982203800276208</v>
+        <v>0.2933396150732923</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -1497,54 +1497,54 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.7503527551754176</v>
+        <v>0.2913659292299709</v>
       </c>
       <c r="B97" t="n">
-        <v>0.8081064247458454</v>
+        <v>0.04633572452747094</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.7724198949992622</v>
+        <v>0.1762834877569892</v>
       </c>
       <c r="B98" t="n">
-        <v>0.7132325042053614</v>
+        <v>0.07238330411652596</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.7035216883923135</v>
+        <v>0.09301580289498054</v>
       </c>
       <c r="B99" t="n">
-        <v>0.8437092740656374</v>
+        <v>0.1471454535229863</v>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.8458151960730721</v>
+        <v>0.1915890360395</v>
       </c>
       <c r="B100" t="n">
-        <v>0.8421030845777651</v>
+        <v>0.02056580087345292</v>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.7373508136813611</v>
+        <v>0.7409548898741398</v>
       </c>
       <c r="B101" t="n">
-        <v>0.8398790235736464</v>
+        <v>0.7926643179288877</v>
       </c>
       <c r="C101" t="n">
         <v>1</v>
@@ -1552,10 +1552,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.03353950628439913</v>
+        <v>0.05822348664770057</v>
       </c>
       <c r="B102" t="n">
-        <v>0.1510163891146006</v>
+        <v>0.2128233652162191</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -1563,21 +1563,21 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.7526265717799773</v>
+        <v>0.06962680108859978</v>
       </c>
       <c r="B103" t="n">
-        <v>0.7725276213377151</v>
+        <v>0.2443244954169715</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.7987376023035236</v>
+        <v>0.8234988831967518</v>
       </c>
       <c r="B104" t="n">
-        <v>0.8148438484511185</v>
+        <v>0.8704599327626901</v>
       </c>
       <c r="C104" t="n">
         <v>1</v>
@@ -1585,32 +1585,32 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.8408876673127608</v>
+        <v>0.03673611307885723</v>
       </c>
       <c r="B105" t="n">
-        <v>0.7013905209276197</v>
+        <v>0.2208125541014237</v>
       </c>
       <c r="C105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.8711764563888134</v>
+        <v>0.14929439558246</v>
       </c>
       <c r="B106" t="n">
-        <v>0.8306941252829667</v>
+        <v>0.161445251986543</v>
       </c>
       <c r="C106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.7812490259667528</v>
+        <v>0.7113737242094119</v>
       </c>
       <c r="B107" t="n">
-        <v>0.8384804817003596</v>
+        <v>0.8780641723013931</v>
       </c>
       <c r="C107" t="n">
         <v>1</v>
@@ -1618,10 +1618,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.2630469696080028</v>
+        <v>0.1819413314511069</v>
       </c>
       <c r="B108" t="n">
-        <v>0.1762308560167</v>
+        <v>0.2589318940115003</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -1629,10 +1629,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.7538984406262789</v>
+        <v>0.7513745225368819</v>
       </c>
       <c r="B109" t="n">
-        <v>0.7910547910159087</v>
+        <v>0.7299573305706777</v>
       </c>
       <c r="C109" t="n">
         <v>1</v>
@@ -1640,21 +1640,21 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.8507798621278488</v>
+        <v>0.04895707622319171</v>
       </c>
       <c r="B110" t="n">
-        <v>0.7210127408621014</v>
+        <v>0.236271005247412</v>
       </c>
       <c r="C110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.2229002425816126</v>
+        <v>0.2341652525320145</v>
       </c>
       <c r="B111" t="n">
-        <v>0.09659792086274932</v>
+        <v>0.1647067173542617</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -1662,43 +1662,43 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.7624502103911844</v>
+        <v>0.006811139013949408</v>
       </c>
       <c r="B112" t="n">
-        <v>0.7311467927133934</v>
+        <v>0.1164230399250798</v>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.7726545142816571</v>
+        <v>0.008404488065677772</v>
       </c>
       <c r="B113" t="n">
-        <v>0.7316568598196416</v>
+        <v>0.1858972734721885</v>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.2109155092663826</v>
+        <v>0.7171220785293436</v>
       </c>
       <c r="B114" t="n">
-        <v>0.009641539149730238</v>
+        <v>0.8829615744898219</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.828979504040448</v>
+        <v>0.8717581331845143</v>
       </c>
       <c r="B115" t="n">
-        <v>0.8675492244861521</v>
+        <v>0.8257799402373044</v>
       </c>
       <c r="C115" t="n">
         <v>1</v>
@@ -1706,10 +1706,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.02214704398726064</v>
+        <v>0.1388958947942517</v>
       </c>
       <c r="B116" t="n">
-        <v>0.2425890414017417</v>
+        <v>0.07154544430501039</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -1717,10 +1717,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.2326278421859051</v>
+        <v>0.1257646651870659</v>
       </c>
       <c r="B117" t="n">
-        <v>0.04943232235429369</v>
+        <v>0.2028425247329177</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -1728,43 +1728,43 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.7508345386785981</v>
+        <v>0.1222281793919394</v>
       </c>
       <c r="B118" t="n">
-        <v>0.8022201508673322</v>
+        <v>0.08955998093511332</v>
       </c>
       <c r="C118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.7644650964812759</v>
+        <v>0.19828739225517</v>
       </c>
       <c r="B119" t="n">
-        <v>0.7812731845449562</v>
+        <v>0.2073553185561684</v>
       </c>
       <c r="C119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.8813494769006588</v>
+        <v>0.06247679486176659</v>
       </c>
       <c r="B120" t="n">
-        <v>0.8813809264737936</v>
+        <v>0.1286026854855658</v>
       </c>
       <c r="C120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.8739974981352674</v>
+        <v>0.8601231417492079</v>
       </c>
       <c r="B121" t="n">
-        <v>0.7601542453830529</v>
+        <v>0.8596030446451076</v>
       </c>
       <c r="C121" t="n">
         <v>1</v>
@@ -1772,32 +1772,32 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.8114352221494308</v>
+        <v>0.1938035403191433</v>
       </c>
       <c r="B122" t="n">
-        <v>0.8024273307215546</v>
+        <v>0.1748419453730619</v>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.05337086877938295</v>
+        <v>0.7578177554725762</v>
       </c>
       <c r="B123" t="n">
-        <v>0.03401120824297096</v>
+        <v>0.7880836114756968</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.2366227250910186</v>
+        <v>0.22169932275291</v>
       </c>
       <c r="B124" t="n">
-        <v>0.2063760490478179</v>
+        <v>0.1252146410359417</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -1805,10 +1805,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.8327750848101163</v>
+        <v>0.7432588332853169</v>
       </c>
       <c r="B125" t="n">
-        <v>0.8338564211862534</v>
+        <v>0.8556320631877024</v>
       </c>
       <c r="C125" t="n">
         <v>1</v>
@@ -1816,21 +1816,21 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.2673479639373822</v>
+        <v>0.7244112975850518</v>
       </c>
       <c r="B126" t="n">
-        <v>0.2995016184816662</v>
+        <v>0.7179347232440335</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.1367173103338461</v>
+        <v>0.2422227754204981</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0829817518384397</v>
+        <v>0.1925846987661515</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -1838,43 +1838,43 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.8966926098844954</v>
+        <v>0.1357672010782047</v>
       </c>
       <c r="B128" t="n">
-        <v>0.7821760878137751</v>
+        <v>0.291792767899265</v>
       </c>
       <c r="C128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.2518081516029779</v>
+        <v>0.8886385703926879</v>
       </c>
       <c r="B129" t="n">
-        <v>0.1745532920758993</v>
+        <v>0.8366660562120156</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.8459361259305965</v>
+        <v>0.1159114190137993</v>
       </c>
       <c r="B130" t="n">
-        <v>0.838226561190111</v>
+        <v>0.2328835692233011</v>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.06944142450058537</v>
+        <v>0.1007144243965889</v>
       </c>
       <c r="B131" t="n">
-        <v>0.05858948184719517</v>
+        <v>0.1790643520960444</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -1882,10 +1882,10 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.8929007167880922</v>
+        <v>0.8563876680891198</v>
       </c>
       <c r="B132" t="n">
-        <v>0.7930906433812263</v>
+        <v>0.8818205939300878</v>
       </c>
       <c r="C132" t="n">
         <v>1</v>
@@ -1893,21 +1893,21 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.27133282425078</v>
+        <v>0.8156466261016598</v>
       </c>
       <c r="B133" t="n">
-        <v>0.07999818495078495</v>
+        <v>0.8916880582607704</v>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.1481702431922188</v>
+        <v>0.2295826840764025</v>
       </c>
       <c r="B134" t="n">
-        <v>0.05053954099903722</v>
+        <v>0.1778383703746286</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.75154116703659</v>
+        <v>0.8174225426158777</v>
       </c>
       <c r="B135" t="n">
-        <v>0.7958776945378579</v>
+        <v>0.7643144008119407</v>
       </c>
       <c r="C135" t="n">
         <v>1</v>
@@ -1926,21 +1926,21 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.1700485974731961</v>
+        <v>0.8856195458891443</v>
       </c>
       <c r="B136" t="n">
-        <v>0.07356044589387757</v>
+        <v>0.7409905194758819</v>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.7551898035798136</v>
+        <v>0.7811118286951949</v>
       </c>
       <c r="B137" t="n">
-        <v>0.740905211801654</v>
+        <v>0.7890816906334764</v>
       </c>
       <c r="C137" t="n">
         <v>1</v>
@@ -1948,21 +1948,21 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.2755538985270765</v>
+        <v>0.7604352994317441</v>
       </c>
       <c r="B138" t="n">
-        <v>0.144353804225614</v>
+        <v>0.8818023529620408</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.1822572898338653</v>
+        <v>0.2547227437807058</v>
       </c>
       <c r="B139" t="n">
-        <v>0.08015803144099821</v>
+        <v>0.2252974589594813</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -1970,32 +1970,32 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.2386316224412951</v>
+        <v>0.801825595692789</v>
       </c>
       <c r="B140" t="n">
-        <v>0.09062202459943275</v>
+        <v>0.7607098443431835</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.7931566023004982</v>
+        <v>0.2608827925253254</v>
       </c>
       <c r="B141" t="n">
-        <v>0.7994353559264806</v>
+        <v>0.05627560686847167</v>
       </c>
       <c r="C141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.7157395343639221</v>
+        <v>0.7430174361399932</v>
       </c>
       <c r="B142" t="n">
-        <v>0.7531690787778356</v>
+        <v>0.7163228670427246</v>
       </c>
       <c r="C142" t="n">
         <v>1</v>
@@ -2003,21 +2003,21 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.7590613776055763</v>
+        <v>0.1445227552117401</v>
       </c>
       <c r="B143" t="n">
-        <v>0.7133823081320937</v>
+        <v>0.102451949482401</v>
       </c>
       <c r="C143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.8644118811352347</v>
+        <v>0.8559905611106581</v>
       </c>
       <c r="B144" t="n">
-        <v>0.8379671308863211</v>
+        <v>0.8131784471469558</v>
       </c>
       <c r="C144" t="n">
         <v>1</v>
@@ -2025,10 +2025,10 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.1264642531733476</v>
+        <v>0.282913436726517</v>
       </c>
       <c r="B145" t="n">
-        <v>0.1498877075522382</v>
+        <v>0.07343777803394788</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -2036,10 +2036,10 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.8626212374408</v>
+        <v>0.7585753928135371</v>
       </c>
       <c r="B146" t="n">
-        <v>0.8115789202413457</v>
+        <v>0.7457107861932729</v>
       </c>
       <c r="C146" t="n">
         <v>1</v>
@@ -2047,54 +2047,54 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.07705675490866759</v>
+        <v>0.7461403468415403</v>
       </c>
       <c r="B147" t="n">
-        <v>0.1927038143240586</v>
+        <v>0.8158609920312032</v>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.00719933558266812</v>
+        <v>0.7245956018793662</v>
       </c>
       <c r="B148" t="n">
-        <v>0.1530815788709032</v>
+        <v>0.7232859679771833</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.7619962505723753</v>
+        <v>0.2685322582377338</v>
       </c>
       <c r="B149" t="n">
-        <v>0.8821460905104297</v>
+        <v>0.02732392326251105</v>
       </c>
       <c r="C149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.8041601125227118</v>
+        <v>0.2956524907773686</v>
       </c>
       <c r="B150" t="n">
-        <v>0.8298138706357734</v>
+        <v>0.1216456068711562</v>
       </c>
       <c r="C150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.2469645331046035</v>
+        <v>0.1148713627688032</v>
       </c>
       <c r="B151" t="n">
-        <v>0.1218118329194174</v>
+        <v>0.09706948613395512</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -2102,10 +2102,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.7855056546968071</v>
+        <v>0.8870623293164961</v>
       </c>
       <c r="B152" t="n">
-        <v>0.8077877987384721</v>
+        <v>0.7962020041444681</v>
       </c>
       <c r="C152" t="n">
         <v>1</v>
@@ -2113,10 +2113,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.06114560874045147</v>
+        <v>0.1354305164632856</v>
       </c>
       <c r="B153" t="n">
-        <v>0.1938475249056334</v>
+        <v>0.2572816673105034</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -2124,10 +2124,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.06364952873075426</v>
+        <v>0.1082298367193239</v>
       </c>
       <c r="B154" t="n">
-        <v>0.1696498486084708</v>
+        <v>0.1609356844784588</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -2135,10 +2135,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.136063307419235</v>
+        <v>0.1128522672709467</v>
       </c>
       <c r="B155" t="n">
-        <v>0.206419825746523</v>
+        <v>0.03706295921586646</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.8464007606346017</v>
+        <v>0.7822729223311857</v>
       </c>
       <c r="B156" t="n">
-        <v>0.8332712323863309</v>
+        <v>0.7290600329203702</v>
       </c>
       <c r="C156" t="n">
         <v>1</v>
@@ -2157,21 +2157,21 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.7483469657869267</v>
+        <v>0.2197889629921037</v>
       </c>
       <c r="B157" t="n">
-        <v>0.8630452836420117</v>
+        <v>0.07806765595403799</v>
       </c>
       <c r="C157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.8635177782431969</v>
+        <v>0.7996671833046973</v>
       </c>
       <c r="B158" t="n">
-        <v>0.8794058401614552</v>
+        <v>0.8356434688969545</v>
       </c>
       <c r="C158" t="n">
         <v>1</v>
@@ -2179,65 +2179,65 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.2266027544034802</v>
+        <v>0.8504015955019656</v>
       </c>
       <c r="B159" t="n">
-        <v>0.1575398562485115</v>
+        <v>0.8305260237128238</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.1153971647532892</v>
+        <v>0.8009904998731098</v>
       </c>
       <c r="B160" t="n">
-        <v>0.09553800351337398</v>
+        <v>0.7010149873375933</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.2600400998603171</v>
+        <v>0.8444930402635044</v>
       </c>
       <c r="B161" t="n">
-        <v>0.07925499508216023</v>
+        <v>0.8181843879813238</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.2073474726651046</v>
+        <v>0.762796831405026</v>
       </c>
       <c r="B162" t="n">
-        <v>0.05875498286327874</v>
+        <v>0.8935428526548977</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.1663454338788567</v>
+        <v>0.8393526518543426</v>
       </c>
       <c r="B163" t="n">
-        <v>0.2330989577264361</v>
+        <v>0.7673256761198621</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.8476606235436125</v>
+        <v>0.817942099310507</v>
       </c>
       <c r="B164" t="n">
-        <v>0.778840712587767</v>
+        <v>0.7238101083451349</v>
       </c>
       <c r="C164" t="n">
         <v>1</v>
@@ -2245,10 +2245,10 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.07466024027523861</v>
+        <v>0.02182113973745348</v>
       </c>
       <c r="B165" t="n">
-        <v>0.1975806797156216</v>
+        <v>0.2450243506512826</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -2256,21 +2256,21 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.8010970759436224</v>
+        <v>0.07983320923781392</v>
       </c>
       <c r="B166" t="n">
-        <v>0.7213332172485868</v>
+        <v>0.1655581172946635</v>
       </c>
       <c r="C166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.7857877897937171</v>
+        <v>0.8687040733953739</v>
       </c>
       <c r="B167" t="n">
-        <v>0.8065790339644615</v>
+        <v>0.7119439425774756</v>
       </c>
       <c r="C167" t="n">
         <v>1</v>
@@ -2278,21 +2278,21 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.08551962912583659</v>
+        <v>0.7046817821804064</v>
       </c>
       <c r="B168" t="n">
-        <v>0.2630279180442293</v>
+        <v>0.8604365296090768</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.2718378726549249</v>
+        <v>0.06375251002423243</v>
       </c>
       <c r="B169" t="n">
-        <v>0.2779454637687436</v>
+        <v>0.1421681999967871</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -2300,54 +2300,54 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.2001661790196557</v>
+        <v>0.7246757971821511</v>
       </c>
       <c r="B170" t="n">
-        <v>0.2148521015123633</v>
+        <v>0.8051669754487962</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.198279524308221</v>
+        <v>0.738001453114186</v>
       </c>
       <c r="B171" t="n">
-        <v>0.1659284145214252</v>
+        <v>0.8542490927831907</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.7423812713229272</v>
+        <v>0.01349822789744641</v>
       </c>
       <c r="B172" t="n">
-        <v>0.8273777377140648</v>
+        <v>0.03001580737603016</v>
       </c>
       <c r="C172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.8030051834021343</v>
+        <v>0.06670003121925376</v>
       </c>
       <c r="B173" t="n">
-        <v>0.8114823679197865</v>
+        <v>0.2011252324096744</v>
       </c>
       <c r="C173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.07451471773604011</v>
+        <v>0.1862072425625016</v>
       </c>
       <c r="B174" t="n">
-        <v>0.2205968123939351</v>
+        <v>0.08033376797597591</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -2355,10 +2355,10 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.8901885131619102</v>
+        <v>0.8856835046370333</v>
       </c>
       <c r="B175" t="n">
-        <v>0.8946469126425385</v>
+        <v>0.7846065085464516</v>
       </c>
       <c r="C175" t="n">
         <v>1</v>
@@ -2366,21 +2366,21 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.8164225004067324</v>
+        <v>0.02661480511688688</v>
       </c>
       <c r="B176" t="n">
-        <v>0.8719714990325914</v>
+        <v>0.1798429001285643</v>
       </c>
       <c r="C176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.02488259475869223</v>
+        <v>0.08138046987032695</v>
       </c>
       <c r="B177" t="n">
-        <v>0.0818008108136581</v>
+        <v>0.2584030562617908</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -2388,32 +2388,32 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.2421114014929908</v>
+        <v>0.8093918403040871</v>
       </c>
       <c r="B178" t="n">
-        <v>0.05270732522189938</v>
+        <v>0.7562304159394334</v>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.1471275625544996</v>
+        <v>0.8375329389217329</v>
       </c>
       <c r="B179" t="n">
-        <v>0.284227349088297</v>
+        <v>0.8427549189747673</v>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.8389259962790356</v>
+        <v>0.8973232965287874</v>
       </c>
       <c r="B180" t="n">
-        <v>0.7886634349470467</v>
+        <v>0.8496994435608302</v>
       </c>
       <c r="C180" t="n">
         <v>1</v>
@@ -2421,10 +2421,10 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.7578561604242884</v>
+        <v>0.8740451727951776</v>
       </c>
       <c r="B181" t="n">
-        <v>0.7301059151987536</v>
+        <v>0.8262749983541648</v>
       </c>
       <c r="C181" t="n">
         <v>1</v>
@@ -2432,21 +2432,21 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.8096290231644734</v>
+        <v>0.1275577421261546</v>
       </c>
       <c r="B182" t="n">
-        <v>0.8820228165359206</v>
+        <v>0.2737476816196825</v>
       </c>
       <c r="C182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.08298574889993744</v>
+        <v>0.2028682274325147</v>
       </c>
       <c r="B183" t="n">
-        <v>0.2016078612827447</v>
+        <v>0.2980475236189426</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -2454,10 +2454,10 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.8864381619736218</v>
+        <v>0.8532934257194438</v>
       </c>
       <c r="B184" t="n">
-        <v>0.7484198127243474</v>
+        <v>0.7547833287349318</v>
       </c>
       <c r="C184" t="n">
         <v>1</v>
@@ -2465,43 +2465,43 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.1251680705415543</v>
+        <v>0.7995085456898103</v>
       </c>
       <c r="B185" t="n">
-        <v>0.2111999615807111</v>
+        <v>0.7520804006236951</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.8480264262611432</v>
+        <v>0.1843151846339056</v>
       </c>
       <c r="B186" t="n">
-        <v>0.7806937726791868</v>
+        <v>0.1825876026421659</v>
       </c>
       <c r="C186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.2163273088415623</v>
+        <v>0.7757636428664375</v>
       </c>
       <c r="B187" t="n">
-        <v>0.1823920155798937</v>
+        <v>0.8282160588808836</v>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.769043033266365</v>
+        <v>0.8837340354221797</v>
       </c>
       <c r="B188" t="n">
-        <v>0.8595320164047998</v>
+        <v>0.8996174469563314</v>
       </c>
       <c r="C188" t="n">
         <v>1</v>
@@ -2509,10 +2509,10 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.2752134664278824</v>
+        <v>0.2403521591212099</v>
       </c>
       <c r="B189" t="n">
-        <v>0.2309092154605346</v>
+        <v>0.04708172182872474</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -2520,21 +2520,21 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.8431102204065712</v>
+        <v>0.2072321702618042</v>
       </c>
       <c r="B190" t="n">
-        <v>0.8785214490729085</v>
+        <v>0.1500423557649125</v>
       </c>
       <c r="C190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.8388751622638612</v>
+        <v>0.8669282725730362</v>
       </c>
       <c r="B191" t="n">
-        <v>0.8705005987667733</v>
+        <v>0.7542452362711183</v>
       </c>
       <c r="C191" t="n">
         <v>1</v>
@@ -2542,10 +2542,10 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.2366389354773591</v>
+        <v>0.2002134693695644</v>
       </c>
       <c r="B192" t="n">
-        <v>0.1090316612157018</v>
+        <v>0.04007957284182485</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -2553,21 +2553,21 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.2744663714356444</v>
+        <v>0.8633421772754546</v>
       </c>
       <c r="B193" t="n">
-        <v>0.285897729126151</v>
+        <v>0.740020196896185</v>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.192018294864184</v>
+        <v>0.2929483652071856</v>
       </c>
       <c r="B194" t="n">
-        <v>0.1326648965048675</v>
+        <v>0.05534097327005035</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -2575,21 +2575,21 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.8662169486311666</v>
+        <v>0.1578128976613048</v>
       </c>
       <c r="B195" t="n">
-        <v>0.7943047457203127</v>
+        <v>0.2758677735974232</v>
       </c>
       <c r="C195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.8245506160518371</v>
+        <v>0.8139097003234144</v>
       </c>
       <c r="B196" t="n">
-        <v>0.8207457665747411</v>
+        <v>0.7545137416783321</v>
       </c>
       <c r="C196" t="n">
         <v>1</v>
@@ -2597,10 +2597,10 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.1507255120550702</v>
+        <v>0.1538189738448917</v>
       </c>
       <c r="B197" t="n">
-        <v>0.00684597354473061</v>
+        <v>0.2898445939964112</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -2608,21 +2608,21 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.7958396630603104</v>
+        <v>0.04869821220671142</v>
       </c>
       <c r="B198" t="n">
-        <v>0.7971406940446871</v>
+        <v>0.1472439053295886</v>
       </c>
       <c r="C198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.0308709478730703</v>
+        <v>0.208304022637812</v>
       </c>
       <c r="B199" t="n">
-        <v>0.2155777780248817</v>
+        <v>0.1436271903372613</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -2630,21 +2630,21 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.1353624432876296</v>
+        <v>0.760310436632509</v>
       </c>
       <c r="B200" t="n">
-        <v>0.1751184914152812</v>
+        <v>0.7891986240145408</v>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.8618128707013993</v>
+        <v>0.8474353309046063</v>
       </c>
       <c r="B201" t="n">
-        <v>0.7186322359881341</v>
+        <v>0.8342640103475915</v>
       </c>
       <c r="C201" t="n">
         <v>1</v>
@@ -2652,54 +2652,54 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.1630118222125257</v>
+        <v>0.8931388414158357</v>
       </c>
       <c r="B202" t="n">
-        <v>0.1331229239800384</v>
+        <v>0.8986356044925778</v>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0.8271754088945169</v>
+        <v>0.2642292592047775</v>
       </c>
       <c r="B203" t="n">
-        <v>0.8631675545416774</v>
+        <v>0.07788703621340194</v>
       </c>
       <c r="C203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.09798790983482336</v>
+        <v>0.8318930900430282</v>
       </c>
       <c r="B204" t="n">
-        <v>0.06935096589890022</v>
+        <v>0.7846845064772485</v>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0.245724633082379</v>
+        <v>0.7765999303889044</v>
       </c>
       <c r="B205" t="n">
-        <v>0.2299963371699301</v>
+        <v>0.7396777064554688</v>
       </c>
       <c r="C205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0.7004934734551032</v>
+        <v>0.8550996629771153</v>
       </c>
       <c r="B206" t="n">
-        <v>0.7706470995969368</v>
+        <v>0.8164792683444191</v>
       </c>
       <c r="C206" t="n">
         <v>1</v>
@@ -2707,32 +2707,32 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0.7534758852279112</v>
+        <v>0.2457417230015897</v>
       </c>
       <c r="B207" t="n">
-        <v>0.8851334454729142</v>
+        <v>0.2978525195199669</v>
       </c>
       <c r="C207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0.1884058146724955</v>
+        <v>0.786423459041045</v>
       </c>
       <c r="B208" t="n">
-        <v>0.2832579984439013</v>
+        <v>0.8938876432465576</v>
       </c>
       <c r="C208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>0.7024662352446087</v>
+        <v>0.8996766279283108</v>
       </c>
       <c r="B209" t="n">
-        <v>0.8048817826065158</v>
+        <v>0.8425083107942761</v>
       </c>
       <c r="C209" t="n">
         <v>1</v>
@@ -2740,10 +2740,10 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>0.7724881787101295</v>
+        <v>0.7048804438800754</v>
       </c>
       <c r="B210" t="n">
-        <v>0.8450342915775801</v>
+        <v>0.7763956492811317</v>
       </c>
       <c r="C210" t="n">
         <v>1</v>
@@ -2751,21 +2751,21 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0.2335630102225491</v>
+        <v>0.7101594309282172</v>
       </c>
       <c r="B211" t="n">
-        <v>0.1741802031065686</v>
+        <v>0.8588181209658954</v>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>0.7203293647299975</v>
+        <v>0.7845407638601939</v>
       </c>
       <c r="B212" t="n">
-        <v>0.7754979082856038</v>
+        <v>0.7185992132785982</v>
       </c>
       <c r="C212" t="n">
         <v>1</v>
@@ -2773,32 +2773,32 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0.8643318504819465</v>
+        <v>0.03145433648148856</v>
       </c>
       <c r="B213" t="n">
-        <v>0.7639967973784745</v>
+        <v>0.142245325782902</v>
       </c>
       <c r="C213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>0.8710990209975465</v>
+        <v>0.01575668652489244</v>
       </c>
       <c r="B214" t="n">
-        <v>0.8690167388857143</v>
+        <v>0.2027231814819503</v>
       </c>
       <c r="C214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0.0440678170495177</v>
+        <v>0.02298296447791668</v>
       </c>
       <c r="B215" t="n">
-        <v>0.2214426960039086</v>
+        <v>0.1717177688324913</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -2806,43 +2806,43 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0.09453214666805859</v>
+        <v>0.8922344455708062</v>
       </c>
       <c r="B216" t="n">
-        <v>0.07218842138128306</v>
+        <v>0.8445914793728984</v>
       </c>
       <c r="C216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>0.123795017882975</v>
+        <v>0.7941982751116137</v>
       </c>
       <c r="B217" t="n">
-        <v>0.1379348425918029</v>
+        <v>0.7329501249414663</v>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>0.7789730889375394</v>
+        <v>0.08041230626758906</v>
       </c>
       <c r="B218" t="n">
-        <v>0.858262631840233</v>
+        <v>0.07871567686901372</v>
       </c>
       <c r="C218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>0.7446822357808573</v>
+        <v>0.8734499219759065</v>
       </c>
       <c r="B219" t="n">
-        <v>0.7950135176202942</v>
+        <v>0.7752802923513756</v>
       </c>
       <c r="C219" t="n">
         <v>1</v>
@@ -2850,10 +2850,10 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>0.8703838259816586</v>
+        <v>0.7720071747378097</v>
       </c>
       <c r="B220" t="n">
-        <v>0.7433853012184971</v>
+        <v>0.715574198746599</v>
       </c>
       <c r="C220" t="n">
         <v>1</v>
@@ -2861,10 +2861,10 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>0.8356710370809219</v>
+        <v>0.8720777552694668</v>
       </c>
       <c r="B221" t="n">
-        <v>0.7591473507591977</v>
+        <v>0.8253077375660496</v>
       </c>
       <c r="C221" t="n">
         <v>1</v>
@@ -2872,10 +2872,10 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>0.2914282303437434</v>
+        <v>0.1024871652745212</v>
       </c>
       <c r="B222" t="n">
-        <v>0.2691654507219565</v>
+        <v>0.2429947731823212</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -2883,10 +2883,10 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>0.7536908378779726</v>
+        <v>0.8484492795931162</v>
       </c>
       <c r="B223" t="n">
-        <v>0.8321307495631329</v>
+        <v>0.8894210381152236</v>
       </c>
       <c r="C223" t="n">
         <v>1</v>
@@ -2894,43 +2894,43 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>0.7396525906564212</v>
+        <v>0.153380572128368</v>
       </c>
       <c r="B224" t="n">
-        <v>0.8891416931608631</v>
+        <v>0.04485646351745282</v>
       </c>
       <c r="C224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>0.7375259706615382</v>
+        <v>0.04894188496429323</v>
       </c>
       <c r="B225" t="n">
-        <v>0.8242317040845452</v>
+        <v>0.1943326112247859</v>
       </c>
       <c r="C225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>0.7657458855434683</v>
+        <v>0.241607080216912</v>
       </c>
       <c r="B226" t="n">
-        <v>0.865178665666483</v>
+        <v>0.03401744307573873</v>
       </c>
       <c r="C226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>0.7938446585548197</v>
+        <v>0.8601177701663977</v>
       </c>
       <c r="B227" t="n">
-        <v>0.8605901557273976</v>
+        <v>0.7355864700430754</v>
       </c>
       <c r="C227" t="n">
         <v>1</v>
@@ -2938,10 +2938,10 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>0.07967012121965962</v>
+        <v>0.1227915218013107</v>
       </c>
       <c r="B228" t="n">
-        <v>0.0774569434949932</v>
+        <v>0.1859966181689856</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -2949,43 +2949,43 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>0.2036633173245651</v>
+        <v>0.858402319138597</v>
       </c>
       <c r="B229" t="n">
-        <v>0.04248185142581717</v>
+        <v>0.7617152361491115</v>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>0.7367897289611718</v>
+        <v>0.2533225369428215</v>
       </c>
       <c r="B230" t="n">
-        <v>0.877838846437179</v>
+        <v>0.1049671232089764</v>
       </c>
       <c r="C230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>0.04656820133183556</v>
+        <v>0.7439281556914172</v>
       </c>
       <c r="B231" t="n">
-        <v>0.1009705236433099</v>
+        <v>0.8774654186206676</v>
       </c>
       <c r="C231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>0.7109607427762663</v>
+        <v>0.7610791538471992</v>
       </c>
       <c r="B232" t="n">
-        <v>0.8480403027694612</v>
+        <v>0.8060863270785784</v>
       </c>
       <c r="C232" t="n">
         <v>1</v>
@@ -2993,43 +2993,43 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>0.01819404088504224</v>
+        <v>0.8027593088073923</v>
       </c>
       <c r="B233" t="n">
-        <v>0.1397026639129931</v>
+        <v>0.8736095292423928</v>
       </c>
       <c r="C233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>0.05238650556266653</v>
+        <v>0.8419777285745959</v>
       </c>
       <c r="B234" t="n">
-        <v>0.2511422970153307</v>
+        <v>0.7966054261058885</v>
       </c>
       <c r="C234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>0.2099541414544626</v>
+        <v>0.8323964957680903</v>
       </c>
       <c r="B235" t="n">
-        <v>0.1116412207691313</v>
+        <v>0.8136132124942599</v>
       </c>
       <c r="C235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>0.7431221123362842</v>
+        <v>0.7442504687163497</v>
       </c>
       <c r="B236" t="n">
-        <v>0.8877886693654872</v>
+        <v>0.8579276691153382</v>
       </c>
       <c r="C236" t="n">
         <v>1</v>
@@ -3037,32 +3037,32 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>0.1657263858044711</v>
+        <v>0.8076189383124127</v>
       </c>
       <c r="B237" t="n">
-        <v>0.07449686955571845</v>
+        <v>0.7511070479222005</v>
       </c>
       <c r="C237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>0.7701135836258208</v>
+        <v>0.08578415876759517</v>
       </c>
       <c r="B238" t="n">
-        <v>0.7733056404634934</v>
+        <v>0.1495722024056362</v>
       </c>
       <c r="C238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>0.7109276887330215</v>
+        <v>0.7915051297967634</v>
       </c>
       <c r="B239" t="n">
-        <v>0.8985523948052643</v>
+        <v>0.719201246809866</v>
       </c>
       <c r="C239" t="n">
         <v>1</v>
@@ -3070,21 +3070,21 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0.2330383585522652</v>
+        <v>0.7644604448679753</v>
       </c>
       <c r="B240" t="n">
-        <v>0.2363700673424278</v>
+        <v>0.7380054837739493</v>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0.1706536174957559</v>
+        <v>0.07039652385378496</v>
       </c>
       <c r="B241" t="n">
-        <v>0.2459098647021505</v>
+        <v>0.06912527935358101</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -3092,10 +3092,10 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>0.880629426680783</v>
+        <v>0.7311838689350605</v>
       </c>
       <c r="B242" t="n">
-        <v>0.7678690088953698</v>
+        <v>0.8879624931307314</v>
       </c>
       <c r="C242" t="n">
         <v>1</v>
@@ -3103,43 +3103,43 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>0.04972181141882772</v>
+        <v>0.7150457996021503</v>
       </c>
       <c r="B243" t="n">
-        <v>0.08144201601960478</v>
+        <v>0.7779142679438023</v>
       </c>
       <c r="C243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>0.07356124199939562</v>
+        <v>0.7054807510893376</v>
       </c>
       <c r="B244" t="n">
-        <v>0.1944745265753939</v>
+        <v>0.8122753872380999</v>
       </c>
       <c r="C244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>0.2722289292347035</v>
+        <v>0.7320284822723745</v>
       </c>
       <c r="B245" t="n">
-        <v>0.1506181052653138</v>
+        <v>0.7593319519476321</v>
       </c>
       <c r="C245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>0.7512574369460993</v>
+        <v>0.8503549834655646</v>
       </c>
       <c r="B246" t="n">
-        <v>0.7920293754593579</v>
+        <v>0.7290029680271098</v>
       </c>
       <c r="C246" t="n">
         <v>1</v>
@@ -3147,10 +3147,10 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>0.04314652960510829</v>
+        <v>0.2944677047164636</v>
       </c>
       <c r="B247" t="n">
-        <v>0.1522482196805162</v>
+        <v>0.2194910637666724</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -3158,10 +3158,10 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>0.8539483694950751</v>
+        <v>0.8965311692363577</v>
       </c>
       <c r="B248" t="n">
-        <v>0.8056992672973357</v>
+        <v>0.7040636632863453</v>
       </c>
       <c r="C248" t="n">
         <v>1</v>
@@ -3169,21 +3169,21 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>0.8024770151296864</v>
+        <v>0.05387481089368405</v>
       </c>
       <c r="B249" t="n">
-        <v>0.8319588924494427</v>
+        <v>0.09865113973646686</v>
       </c>
       <c r="C249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>0.7263755230535148</v>
+        <v>0.7277963083960329</v>
       </c>
       <c r="B250" t="n">
-        <v>0.7297304040103811</v>
+        <v>0.7402962195448846</v>
       </c>
       <c r="C250" t="n">
         <v>1</v>
@@ -3191,10 +3191,10 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>0.1042912282902397</v>
+        <v>0.2141228076511907</v>
       </c>
       <c r="B251" t="n">
-        <v>0.051312957494976</v>
+        <v>0.1163667488392061</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>0.1091182295303966</v>
+        <v>0.03071862921472602</v>
       </c>
       <c r="B252" t="n">
-        <v>0.2314898429357664</v>
+        <v>0.1576027952933229</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -3213,13 +3213,2741 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>0.2189521139967389</v>
+        <v>0.02094261500723621</v>
       </c>
       <c r="B253" t="n">
-        <v>0.256577276287789</v>
+        <v>0.03787805387749574</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>0.830488266526668</v>
+      </c>
+      <c r="B254" t="n">
+        <v>0.8367178713841361</v>
+      </c>
+      <c r="C254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>0.06883780473474427</v>
+      </c>
+      <c r="B255" t="n">
+        <v>0.1640054921090052</v>
+      </c>
+      <c r="C255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>0.2250999815730659</v>
+      </c>
+      <c r="B256" t="n">
+        <v>0.09331146422950549</v>
+      </c>
+      <c r="C256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>0.2986668840132273</v>
+      </c>
+      <c r="B257" t="n">
+        <v>0.1767935214982334</v>
+      </c>
+      <c r="C257" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>0.211942087125319</v>
+      </c>
+      <c r="B258" t="n">
+        <v>0.09390278842465585</v>
+      </c>
+      <c r="C258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>0.1675642226573337</v>
+      </c>
+      <c r="B259" t="n">
+        <v>0.2376775623116469</v>
+      </c>
+      <c r="C259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>0.1399046317441391</v>
+      </c>
+      <c r="B260" t="n">
+        <v>0.1812430276374671</v>
+      </c>
+      <c r="C260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>0.05283751140299058</v>
+      </c>
+      <c r="B261" t="n">
+        <v>0.271747291776798</v>
+      </c>
+      <c r="C261" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>0.8966294443729085</v>
+      </c>
+      <c r="B262" t="n">
+        <v>0.8554353574656748</v>
+      </c>
+      <c r="C262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>0.8721193736008308</v>
+      </c>
+      <c r="B263" t="n">
+        <v>0.7595642425020965</v>
+      </c>
+      <c r="C263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>0.01423867243411717</v>
+      </c>
+      <c r="B264" t="n">
+        <v>0.1147533717309622</v>
+      </c>
+      <c r="C264" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>0.7709946834142904</v>
+      </c>
+      <c r="B265" t="n">
+        <v>0.8532656869674714</v>
+      </c>
+      <c r="C265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>0.7244344133024847</v>
+      </c>
+      <c r="B266" t="n">
+        <v>0.8007769204954032</v>
+      </c>
+      <c r="C266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>0.0626838455569121</v>
+      </c>
+      <c r="B267" t="n">
+        <v>0.1203671498935158</v>
+      </c>
+      <c r="C267" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>0.8491845516731871</v>
+      </c>
+      <c r="B268" t="n">
+        <v>0.7620225748269454</v>
+      </c>
+      <c r="C268" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>0.226348853555213</v>
+      </c>
+      <c r="B269" t="n">
+        <v>0.1451442134299351</v>
+      </c>
+      <c r="C269" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>0.8585869286660377</v>
+      </c>
+      <c r="B270" t="n">
+        <v>0.7264946823744638</v>
+      </c>
+      <c r="C270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>0.7881770424494748</v>
+      </c>
+      <c r="B271" t="n">
+        <v>0.7623618258662258</v>
+      </c>
+      <c r="C271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>0.1276008497222653</v>
+      </c>
+      <c r="B272" t="n">
+        <v>0.1983180949983807</v>
+      </c>
+      <c r="C272" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>0.251902797157377</v>
+      </c>
+      <c r="B273" t="n">
+        <v>0.2679942278308862</v>
+      </c>
+      <c r="C273" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>0.2637633015337406</v>
+      </c>
+      <c r="B274" t="n">
+        <v>0.1522265779681477</v>
+      </c>
+      <c r="C274" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>0.1583122605072228</v>
+      </c>
+      <c r="B275" t="n">
+        <v>0.2398643874606561</v>
+      </c>
+      <c r="C275" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>0.8370330323809596</v>
+      </c>
+      <c r="B276" t="n">
+        <v>0.7737637236672328</v>
+      </c>
+      <c r="C276" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>0.1770677491537375</v>
+      </c>
+      <c r="B277" t="n">
+        <v>0.1658529237737739</v>
+      </c>
+      <c r="C277" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>0.8116385443102556</v>
+      </c>
+      <c r="B278" t="n">
+        <v>0.7709347081232413</v>
+      </c>
+      <c r="C278" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>0.272458054603628</v>
+      </c>
+      <c r="B279" t="n">
+        <v>0.03624743679936216</v>
+      </c>
+      <c r="C279" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>0.2312040268457262</v>
+      </c>
+      <c r="B280" t="n">
+        <v>0.1576505919272961</v>
+      </c>
+      <c r="C280" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>0.8452829219288001</v>
+      </c>
+      <c r="B281" t="n">
+        <v>0.7392914341086509</v>
+      </c>
+      <c r="C281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>0.7538868223352037</v>
+      </c>
+      <c r="B282" t="n">
+        <v>0.7100188716998322</v>
+      </c>
+      <c r="C282" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>0.102204602750402</v>
+      </c>
+      <c r="B283" t="n">
+        <v>0.03991292761813568</v>
+      </c>
+      <c r="C283" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>0.00455342644464638</v>
+      </c>
+      <c r="B284" t="n">
+        <v>0.2375835271914558</v>
+      </c>
+      <c r="C284" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>0.1672653398743289</v>
+      </c>
+      <c r="B285" t="n">
+        <v>0.1044620412091143</v>
+      </c>
+      <c r="C285" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>0.8417083006685334</v>
+      </c>
+      <c r="B286" t="n">
+        <v>0.7135976960400028</v>
+      </c>
+      <c r="C286" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>0.7922066438142796</v>
+      </c>
+      <c r="B287" t="n">
+        <v>0.7780891658608218</v>
+      </c>
+      <c r="C287" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>0.7830679254147326</v>
+      </c>
+      <c r="B288" t="n">
+        <v>0.762410924798184</v>
+      </c>
+      <c r="C288" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>0.1369203814219719</v>
+      </c>
+      <c r="B289" t="n">
+        <v>0.06709919832603439</v>
+      </c>
+      <c r="C289" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>0.1613043580755477</v>
+      </c>
+      <c r="B290" t="n">
+        <v>0.07137753484286487</v>
+      </c>
+      <c r="C290" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>0.8806731427284549</v>
+      </c>
+      <c r="B291" t="n">
+        <v>0.7110276543998295</v>
+      </c>
+      <c r="C291" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>0.03079320190656013</v>
+      </c>
+      <c r="B292" t="n">
+        <v>0.1295864520821941</v>
+      </c>
+      <c r="C292" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>0.2612006160592173</v>
+      </c>
+      <c r="B293" t="n">
+        <v>0.2072413504690777</v>
+      </c>
+      <c r="C293" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>0.7923706666328986</v>
+      </c>
+      <c r="B294" t="n">
+        <v>0.8681047351717663</v>
+      </c>
+      <c r="C294" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>0.8420416038915328</v>
+      </c>
+      <c r="B295" t="n">
+        <v>0.7737990097711233</v>
+      </c>
+      <c r="C295" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>0.8623756123139562</v>
+      </c>
+      <c r="B296" t="n">
+        <v>0.8636968540197705</v>
+      </c>
+      <c r="C296" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>0.2602380016821048</v>
+      </c>
+      <c r="B297" t="n">
+        <v>0.2778482134070598</v>
+      </c>
+      <c r="C297" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>0.1629779338888372</v>
+      </c>
+      <c r="B298" t="n">
+        <v>0.03652045466824539</v>
+      </c>
+      <c r="C298" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>0.7853725459258263</v>
+      </c>
+      <c r="B299" t="n">
+        <v>0.8805656465378849</v>
+      </c>
+      <c r="C299" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>0.1894871551482384</v>
+      </c>
+      <c r="B300" t="n">
+        <v>0.1952871663022978</v>
+      </c>
+      <c r="C300" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>0.1831266720340134</v>
+      </c>
+      <c r="B301" t="n">
+        <v>0.26792656533287</v>
+      </c>
+      <c r="C301" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>0.2526882870808347</v>
+      </c>
+      <c r="B302" t="n">
+        <v>0.2087313424691323</v>
+      </c>
+      <c r="C302" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>0.06509612151658266</v>
+      </c>
+      <c r="B303" t="n">
+        <v>0.1784598968962895</v>
+      </c>
+      <c r="C303" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>0.8893113583809205</v>
+      </c>
+      <c r="B304" t="n">
+        <v>0.7634691101152863</v>
+      </c>
+      <c r="C304" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>0.7251733782327486</v>
+      </c>
+      <c r="B305" t="n">
+        <v>0.7423406737515672</v>
+      </c>
+      <c r="C305" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>0.02291840737442462</v>
+      </c>
+      <c r="B306" t="n">
+        <v>0.187037925756312</v>
+      </c>
+      <c r="C306" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>0.7996045909523688</v>
+      </c>
+      <c r="B307" t="n">
+        <v>0.7085978043673169</v>
+      </c>
+      <c r="C307" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>0.2575335405368332</v>
+      </c>
+      <c r="B308" t="n">
+        <v>0.2802912674560146</v>
+      </c>
+      <c r="C308" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>0.8718774284610099</v>
+      </c>
+      <c r="B309" t="n">
+        <v>0.8434614087099367</v>
+      </c>
+      <c r="C309" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>0.2596101250095275</v>
+      </c>
+      <c r="B310" t="n">
+        <v>0.1217756690011742</v>
+      </c>
+      <c r="C310" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>0.2387354305698397</v>
+      </c>
+      <c r="B311" t="n">
+        <v>0.1181837356518538</v>
+      </c>
+      <c r="C311" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>0.188945378635</v>
+      </c>
+      <c r="B312" t="n">
+        <v>0.1877191734793638</v>
+      </c>
+      <c r="C312" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>0.7671727263773133</v>
+      </c>
+      <c r="B313" t="n">
+        <v>0.830569794496901</v>
+      </c>
+      <c r="C313" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>0.8271718017356942</v>
+      </c>
+      <c r="B314" t="n">
+        <v>0.8640626534995882</v>
+      </c>
+      <c r="C314" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>0.8246482959766742</v>
+      </c>
+      <c r="B315" t="n">
+        <v>0.7396409709132065</v>
+      </c>
+      <c r="C315" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>0.005586242476695547</v>
+      </c>
+      <c r="B316" t="n">
+        <v>0.2399693422625681</v>
+      </c>
+      <c r="C316" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>0.8868127283522332</v>
+      </c>
+      <c r="B317" t="n">
+        <v>0.7338595165154991</v>
+      </c>
+      <c r="C317" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>0.8293162188505674</v>
+      </c>
+      <c r="B318" t="n">
+        <v>0.8790056593758311</v>
+      </c>
+      <c r="C318" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>0.8237991362400704</v>
+      </c>
+      <c r="B319" t="n">
+        <v>0.8811582042699994</v>
+      </c>
+      <c r="C319" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>0.196589212250266</v>
+      </c>
+      <c r="B320" t="n">
+        <v>0.04421863239874169</v>
+      </c>
+      <c r="C320" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>0.09109824507846204</v>
+      </c>
+      <c r="B321" t="n">
+        <v>0.1289954966331791</v>
+      </c>
+      <c r="C321" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>0.8737135287934286</v>
+      </c>
+      <c r="B322" t="n">
+        <v>0.7019608353446263</v>
+      </c>
+      <c r="C322" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>0.2841830859707403</v>
+      </c>
+      <c r="B323" t="n">
+        <v>0.2397275708728546</v>
+      </c>
+      <c r="C323" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>0.2819650097847184</v>
+      </c>
+      <c r="B324" t="n">
+        <v>0.1586897676922829</v>
+      </c>
+      <c r="C324" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>0.7734457589982814</v>
+      </c>
+      <c r="B325" t="n">
+        <v>0.7480771847707578</v>
+      </c>
+      <c r="C325" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>0.7128870956770816</v>
+      </c>
+      <c r="B326" t="n">
+        <v>0.7745508658542476</v>
+      </c>
+      <c r="C326" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>0.8882884899307933</v>
+      </c>
+      <c r="B327" t="n">
+        <v>0.7186981478513922</v>
+      </c>
+      <c r="C327" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>0.2393177298668509</v>
+      </c>
+      <c r="B328" t="n">
+        <v>0.1580085017541623</v>
+      </c>
+      <c r="C328" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>0.8782835345878794</v>
+      </c>
+      <c r="B329" t="n">
+        <v>0.8503095699786283</v>
+      </c>
+      <c r="C329" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>0.7486662700083432</v>
+      </c>
+      <c r="B330" t="n">
+        <v>0.7705134332528057</v>
+      </c>
+      <c r="C330" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>0.09431475680894437</v>
+      </c>
+      <c r="B331" t="n">
+        <v>0.01792899536065664</v>
+      </c>
+      <c r="C331" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>0.8051008959902011</v>
+      </c>
+      <c r="B332" t="n">
+        <v>0.8463681537021636</v>
+      </c>
+      <c r="C332" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>0.7120272375215796</v>
+      </c>
+      <c r="B333" t="n">
+        <v>0.8042077165627831</v>
+      </c>
+      <c r="C333" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>0.7346077378520625</v>
+      </c>
+      <c r="B334" t="n">
+        <v>0.7694759015753589</v>
+      </c>
+      <c r="C334" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>0.05624681542883889</v>
+      </c>
+      <c r="B335" t="n">
+        <v>0.03592638633288929</v>
+      </c>
+      <c r="C335" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>0.7253706282019315</v>
+      </c>
+      <c r="B336" t="n">
+        <v>0.8796052943690255</v>
+      </c>
+      <c r="C336" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>0.7414131474234922</v>
+      </c>
+      <c r="B337" t="n">
+        <v>0.8895131389385326</v>
+      </c>
+      <c r="C337" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>0.719432637720641</v>
+      </c>
+      <c r="B338" t="n">
+        <v>0.7957366086495912</v>
+      </c>
+      <c r="C338" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>0.02161701957672281</v>
+      </c>
+      <c r="B339" t="n">
+        <v>0.008016979282686265</v>
+      </c>
+      <c r="C339" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>0.706221716468889</v>
+      </c>
+      <c r="B340" t="n">
+        <v>0.8733296937521284</v>
+      </c>
+      <c r="C340" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>0.05507039274549832</v>
+      </c>
+      <c r="B341" t="n">
+        <v>0.02562362508352537</v>
+      </c>
+      <c r="C341" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>0.08856747048690113</v>
+      </c>
+      <c r="B342" t="n">
+        <v>0.1550495859803533</v>
+      </c>
+      <c r="C342" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>0.8781244095294998</v>
+      </c>
+      <c r="B343" t="n">
+        <v>0.7133214763062328</v>
+      </c>
+      <c r="C343" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>0.7670117879151432</v>
+      </c>
+      <c r="B344" t="n">
+        <v>0.7452062603201276</v>
+      </c>
+      <c r="C344" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>0.8544453452981264</v>
+      </c>
+      <c r="B345" t="n">
+        <v>0.8780191242044422</v>
+      </c>
+      <c r="C345" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>0.1918719200773793</v>
+      </c>
+      <c r="B346" t="n">
+        <v>0.1474349098093084</v>
+      </c>
+      <c r="C346" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>0.7654203495529364</v>
+      </c>
+      <c r="B347" t="n">
+        <v>0.7248975365870609</v>
+      </c>
+      <c r="C347" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>0.8499339475145784</v>
+      </c>
+      <c r="B348" t="n">
+        <v>0.7224785811620178</v>
+      </c>
+      <c r="C348" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>0.2710059823694822</v>
+      </c>
+      <c r="B349" t="n">
+        <v>0.2942671778771514</v>
+      </c>
+      <c r="C349" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>0.8640324690654887</v>
+      </c>
+      <c r="B350" t="n">
+        <v>0.8296197900708336</v>
+      </c>
+      <c r="C350" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>0.8818517057639604</v>
+      </c>
+      <c r="B351" t="n">
+        <v>0.8706593719216567</v>
+      </c>
+      <c r="C351" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>0.8641283957507474</v>
+      </c>
+      <c r="B352" t="n">
+        <v>0.7913983581786632</v>
+      </c>
+      <c r="C352" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>0.253948741479484</v>
+      </c>
+      <c r="B353" t="n">
+        <v>0.2899139309195162</v>
+      </c>
+      <c r="C353" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>0.2805144675507722</v>
+      </c>
+      <c r="B354" t="n">
+        <v>0.281748842682984</v>
+      </c>
+      <c r="C354" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>0.03105544515657451</v>
+      </c>
+      <c r="B355" t="n">
+        <v>0.002276387206772001</v>
+      </c>
+      <c r="C355" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>0.1443760955029564</v>
+      </c>
+      <c r="B356" t="n">
+        <v>0.005303369469084396</v>
+      </c>
+      <c r="C356" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>0.7647488092827581</v>
+      </c>
+      <c r="B357" t="n">
+        <v>0.7642477900961967</v>
+      </c>
+      <c r="C357" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>0.2809946754050549</v>
+      </c>
+      <c r="B358" t="n">
+        <v>0.2990344193307117</v>
+      </c>
+      <c r="C358" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>0.1156177691541565</v>
+      </c>
+      <c r="B359" t="n">
+        <v>0.2959294534419969</v>
+      </c>
+      <c r="C359" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>0.2885468301827245</v>
+      </c>
+      <c r="B360" t="n">
+        <v>0.166586626405285</v>
+      </c>
+      <c r="C360" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>0.06220518003054208</v>
+      </c>
+      <c r="B361" t="n">
+        <v>0.2106804945525577</v>
+      </c>
+      <c r="C361" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>0.2622477710175783</v>
+      </c>
+      <c r="B362" t="n">
+        <v>0.02856745606118581</v>
+      </c>
+      <c r="C362" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>0.1784766521960348</v>
+      </c>
+      <c r="B363" t="n">
+        <v>0.1676494613694939</v>
+      </c>
+      <c r="C363" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>0.1319065320519136</v>
+      </c>
+      <c r="B364" t="n">
+        <v>0.2123954795531437</v>
+      </c>
+      <c r="C364" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>0.2637892690754133</v>
+      </c>
+      <c r="B365" t="n">
+        <v>0.1666006775093432</v>
+      </c>
+      <c r="C365" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>0.7664918189927966</v>
+      </c>
+      <c r="B366" t="n">
+        <v>0.7173093203584862</v>
+      </c>
+      <c r="C366" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>0.8653717334620947</v>
+      </c>
+      <c r="B367" t="n">
+        <v>0.786300175955615</v>
+      </c>
+      <c r="C367" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>0.7210388147154866</v>
+      </c>
+      <c r="B368" t="n">
+        <v>0.7145783367302202</v>
+      </c>
+      <c r="C368" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>0.8079718219613949</v>
+      </c>
+      <c r="B369" t="n">
+        <v>0.8282011111543829</v>
+      </c>
+      <c r="C369" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>0.1102319430734545</v>
+      </c>
+      <c r="B370" t="n">
+        <v>0.1032680611033118</v>
+      </c>
+      <c r="C370" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>0.842231760306335</v>
+      </c>
+      <c r="B371" t="n">
+        <v>0.7394880285542831</v>
+      </c>
+      <c r="C371" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>0.10452568256659</v>
+      </c>
+      <c r="B372" t="n">
+        <v>0.1816886634873129</v>
+      </c>
+      <c r="C372" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>0.2261595457854151</v>
+      </c>
+      <c r="B373" t="n">
+        <v>0.1558986777243369</v>
+      </c>
+      <c r="C373" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>0.8503016871708937</v>
+      </c>
+      <c r="B374" t="n">
+        <v>0.7201187161371867</v>
+      </c>
+      <c r="C374" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>0.7651957181048763</v>
+      </c>
+      <c r="B375" t="n">
+        <v>0.8738426075171323</v>
+      </c>
+      <c r="C375" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>0.209190680910511</v>
+      </c>
+      <c r="B376" t="n">
+        <v>0.1910895297454228</v>
+      </c>
+      <c r="C376" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>0.08998179337787465</v>
+      </c>
+      <c r="B377" t="n">
+        <v>0.03451233803361364</v>
+      </c>
+      <c r="C377" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>0.8898460595074156</v>
+      </c>
+      <c r="B378" t="n">
+        <v>0.7656983156390293</v>
+      </c>
+      <c r="C378" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>0.7501402477584848</v>
+      </c>
+      <c r="B379" t="n">
+        <v>0.8640071831417245</v>
+      </c>
+      <c r="C379" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>0.8863638241823211</v>
+      </c>
+      <c r="B380" t="n">
+        <v>0.7519142177297068</v>
+      </c>
+      <c r="C380" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>0.8503676028357094</v>
+      </c>
+      <c r="B381" t="n">
+        <v>0.8017512712637352</v>
+      </c>
+      <c r="C381" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>0.150729439052673</v>
+      </c>
+      <c r="B382" t="n">
+        <v>0.1517632141617632</v>
+      </c>
+      <c r="C382" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>0.8071417418718436</v>
+      </c>
+      <c r="B383" t="n">
+        <v>0.8963180130473669</v>
+      </c>
+      <c r="C383" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>0.8934936585020388</v>
+      </c>
+      <c r="B384" t="n">
+        <v>0.7055615630737452</v>
+      </c>
+      <c r="C384" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>0.8372884254165021</v>
+      </c>
+      <c r="B385" t="n">
+        <v>0.8805576360586574</v>
+      </c>
+      <c r="C385" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>0.02422318484573746</v>
+      </c>
+      <c r="B386" t="n">
+        <v>0.161821951987874</v>
+      </c>
+      <c r="C386" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>0.06338978032237612</v>
+      </c>
+      <c r="B387" t="n">
+        <v>0.2176204431783761</v>
+      </c>
+      <c r="C387" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>0.7730845123080454</v>
+      </c>
+      <c r="B388" t="n">
+        <v>0.7767619857398852</v>
+      </c>
+      <c r="C388" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>0.2912519637498238</v>
+      </c>
+      <c r="B389" t="n">
+        <v>0.1273594641877624</v>
+      </c>
+      <c r="C389" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>0.8072268073770615</v>
+      </c>
+      <c r="B390" t="n">
+        <v>0.7190616014406892</v>
+      </c>
+      <c r="C390" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>0.1813974169327326</v>
+      </c>
+      <c r="B391" t="n">
+        <v>0.1619566747992765</v>
+      </c>
+      <c r="C391" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>0.8934085385536572</v>
+      </c>
+      <c r="B392" t="n">
+        <v>0.7506250309205051</v>
+      </c>
+      <c r="C392" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>0.2173781224747044</v>
+      </c>
+      <c r="B393" t="n">
+        <v>0.06975035857679317</v>
+      </c>
+      <c r="C393" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>0.8577079518956721</v>
+      </c>
+      <c r="B394" t="n">
+        <v>0.8418296957025825</v>
+      </c>
+      <c r="C394" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>0.7842683953393821</v>
+      </c>
+      <c r="B395" t="n">
+        <v>0.8406956875572658</v>
+      </c>
+      <c r="C395" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>0.7513288811792618</v>
+      </c>
+      <c r="B396" t="n">
+        <v>0.7062477754735369</v>
+      </c>
+      <c r="C396" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>0.7281720452448562</v>
+      </c>
+      <c r="B397" t="n">
+        <v>0.8808766815084816</v>
+      </c>
+      <c r="C397" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>0.8113214588049211</v>
+      </c>
+      <c r="B398" t="n">
+        <v>0.714841863132219</v>
+      </c>
+      <c r="C398" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>0.1248408376865542</v>
+      </c>
+      <c r="B399" t="n">
+        <v>0.2654757056304228</v>
+      </c>
+      <c r="C399" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>0.8500616734465236</v>
+      </c>
+      <c r="B400" t="n">
+        <v>0.8903173195867682</v>
+      </c>
+      <c r="C400" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>0.7623027426578892</v>
+      </c>
+      <c r="B401" t="n">
+        <v>0.8704129721229339</v>
+      </c>
+      <c r="C401" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>0.2413148460653898</v>
+      </c>
+      <c r="B402" t="n">
+        <v>0.1010301472189509</v>
+      </c>
+      <c r="C402" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>0.7329641581198419</v>
+      </c>
+      <c r="B403" t="n">
+        <v>0.7554558435280938</v>
+      </c>
+      <c r="C403" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>0.8569860155283455</v>
+      </c>
+      <c r="B404" t="n">
+        <v>0.8334186054211069</v>
+      </c>
+      <c r="C404" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>0.2036565655523668</v>
+      </c>
+      <c r="B405" t="n">
+        <v>0.002263841534145705</v>
+      </c>
+      <c r="C405" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>0.1448357108393352</v>
+      </c>
+      <c r="B406" t="n">
+        <v>0.1102898343083493</v>
+      </c>
+      <c r="C406" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>0.2869462066500661</v>
+      </c>
+      <c r="B407" t="n">
+        <v>0.2331173691974512</v>
+      </c>
+      <c r="C407" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>0.7921065927105952</v>
+      </c>
+      <c r="B408" t="n">
+        <v>0.7471379353420471</v>
+      </c>
+      <c r="C408" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>0.8375169134203815</v>
+      </c>
+      <c r="B409" t="n">
+        <v>0.8405481840924054</v>
+      </c>
+      <c r="C409" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>0.8272828391236416</v>
+      </c>
+      <c r="B410" t="n">
+        <v>0.88422753019374</v>
+      </c>
+      <c r="C410" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>0.8762103630512839</v>
+      </c>
+      <c r="B411" t="n">
+        <v>0.8237573750118625</v>
+      </c>
+      <c r="C411" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>0.09493938005762104</v>
+      </c>
+      <c r="B412" t="n">
+        <v>0.01378667844077275</v>
+      </c>
+      <c r="C412" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>0.1829457069931338</v>
+      </c>
+      <c r="B413" t="n">
+        <v>0.222808401465391</v>
+      </c>
+      <c r="C413" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>0.005804897422647481</v>
+      </c>
+      <c r="B414" t="n">
+        <v>0.1120205545833821</v>
+      </c>
+      <c r="C414" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>0.1566605842808002</v>
+      </c>
+      <c r="B415" t="n">
+        <v>0.2313044714008253</v>
+      </c>
+      <c r="C415" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>0.8694542803975068</v>
+      </c>
+      <c r="B416" t="n">
+        <v>0.8669756197424136</v>
+      </c>
+      <c r="C416" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>0.0227652391162348</v>
+      </c>
+      <c r="B417" t="n">
+        <v>0.2868622409661973</v>
+      </c>
+      <c r="C417" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>0.2259783570546375</v>
+      </c>
+      <c r="B418" t="n">
+        <v>0.05566867987046224</v>
+      </c>
+      <c r="C418" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>0.0391124216587702</v>
+      </c>
+      <c r="B419" t="n">
+        <v>0.08045620266556987</v>
+      </c>
+      <c r="C419" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>0.8932671831803677</v>
+      </c>
+      <c r="B420" t="n">
+        <v>0.8434756341896785</v>
+      </c>
+      <c r="C420" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>0.2334803673648761</v>
+      </c>
+      <c r="B421" t="n">
+        <v>0.1364981302227066</v>
+      </c>
+      <c r="C421" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>0.06582584128283338</v>
+      </c>
+      <c r="B422" t="n">
+        <v>0.1833194946354356</v>
+      </c>
+      <c r="C422" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>0.7598182745697337</v>
+      </c>
+      <c r="B423" t="n">
+        <v>0.8660177237900313</v>
+      </c>
+      <c r="C423" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>0.2954670739115493</v>
+      </c>
+      <c r="B424" t="n">
+        <v>0.220584531238635</v>
+      </c>
+      <c r="C424" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>0.09746421385655547</v>
+      </c>
+      <c r="B425" t="n">
+        <v>0.2951003122386678</v>
+      </c>
+      <c r="C425" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>0.1348594011327217</v>
+      </c>
+      <c r="B426" t="n">
+        <v>0.1154237402088597</v>
+      </c>
+      <c r="C426" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>0.8840057667070949</v>
+      </c>
+      <c r="B427" t="n">
+        <v>0.8546083939375836</v>
+      </c>
+      <c r="C427" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>0.08969726027020734</v>
+      </c>
+      <c r="B428" t="n">
+        <v>0.1137986018930952</v>
+      </c>
+      <c r="C428" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>0.8624066560209884</v>
+      </c>
+      <c r="B429" t="n">
+        <v>0.7178023610192446</v>
+      </c>
+      <c r="C429" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>0.0662264587300397</v>
+      </c>
+      <c r="B430" t="n">
+        <v>0.2843083775874414</v>
+      </c>
+      <c r="C430" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>0.8617575568118891</v>
+      </c>
+      <c r="B431" t="n">
+        <v>0.7403526484903603</v>
+      </c>
+      <c r="C431" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>0.8993062641957084</v>
+      </c>
+      <c r="B432" t="n">
+        <v>0.8700084532029123</v>
+      </c>
+      <c r="C432" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>0.1089371874992007</v>
+      </c>
+      <c r="B433" t="n">
+        <v>0.2618680665086668</v>
+      </c>
+      <c r="C433" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>0.7628096377972134</v>
+      </c>
+      <c r="B434" t="n">
+        <v>0.7420484818038915</v>
+      </c>
+      <c r="C434" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>0.2779505833513292</v>
+      </c>
+      <c r="B435" t="n">
+        <v>0.2972012462152135</v>
+      </c>
+      <c r="C435" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>0.8642347428756323</v>
+      </c>
+      <c r="B436" t="n">
+        <v>0.74985458337283</v>
+      </c>
+      <c r="C436" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>0.7406558697229902</v>
+      </c>
+      <c r="B437" t="n">
+        <v>0.8900171599957174</v>
+      </c>
+      <c r="C437" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>0.1120943589160374</v>
+      </c>
+      <c r="B438" t="n">
+        <v>0.05867116387274911</v>
+      </c>
+      <c r="C438" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>0.8632597841902243</v>
+      </c>
+      <c r="B439" t="n">
+        <v>0.8844185047390951</v>
+      </c>
+      <c r="C439" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>0.2845835517007619</v>
+      </c>
+      <c r="B440" t="n">
+        <v>0.1388608904154299</v>
+      </c>
+      <c r="C440" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>0.8080949274279334</v>
+      </c>
+      <c r="B441" t="n">
+        <v>0.8649161623436654</v>
+      </c>
+      <c r="C441" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>0.7020987848519494</v>
+      </c>
+      <c r="B442" t="n">
+        <v>0.8505752586454752</v>
+      </c>
+      <c r="C442" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>0.1012763586347384</v>
+      </c>
+      <c r="B443" t="n">
+        <v>0.1403985826486679</v>
+      </c>
+      <c r="C443" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>0.2809194078879195</v>
+      </c>
+      <c r="B444" t="n">
+        <v>0.2130135929694146</v>
+      </c>
+      <c r="C444" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>0.7451729237692482</v>
+      </c>
+      <c r="B445" t="n">
+        <v>0.8310779036358221</v>
+      </c>
+      <c r="C445" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>0.0283534992517108</v>
+      </c>
+      <c r="B446" t="n">
+        <v>0.04121746081014491</v>
+      </c>
+      <c r="C446" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>0.2618506776933813</v>
+      </c>
+      <c r="B447" t="n">
+        <v>0.06150368776102703</v>
+      </c>
+      <c r="C447" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>0.03736181088923451</v>
+      </c>
+      <c r="B448" t="n">
+        <v>0.2754826771881212</v>
+      </c>
+      <c r="C448" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>0.09327345385579125</v>
+      </c>
+      <c r="B449" t="n">
+        <v>0.001745185965605123</v>
+      </c>
+      <c r="C449" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>0.8371271385299501</v>
+      </c>
+      <c r="B450" t="n">
+        <v>0.8935435903142499</v>
+      </c>
+      <c r="C450" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>0.713816321155549</v>
+      </c>
+      <c r="B451" t="n">
+        <v>0.8986068742216027</v>
+      </c>
+      <c r="C451" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>0.253090868757866</v>
+      </c>
+      <c r="B452" t="n">
+        <v>0.0944080383479004</v>
+      </c>
+      <c r="C452" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>0.2316244348994361</v>
+      </c>
+      <c r="B453" t="n">
+        <v>0.15801151340815</v>
+      </c>
+      <c r="C453" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>0.8637326317840424</v>
+      </c>
+      <c r="B454" t="n">
+        <v>0.8295745509825534</v>
+      </c>
+      <c r="C454" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>0.7213370008962153</v>
+      </c>
+      <c r="B455" t="n">
+        <v>0.7286306050790288</v>
+      </c>
+      <c r="C455" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>0.7729775003120712</v>
+      </c>
+      <c r="B456" t="n">
+        <v>0.7568089189563685</v>
+      </c>
+      <c r="C456" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>0.1977483374048648</v>
+      </c>
+      <c r="B457" t="n">
+        <v>0.01475339360949229</v>
+      </c>
+      <c r="C457" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>0.2162737906181595</v>
+      </c>
+      <c r="B458" t="n">
+        <v>0.009487306751887326</v>
+      </c>
+      <c r="C458" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>0.7470560294267948</v>
+      </c>
+      <c r="B459" t="n">
+        <v>0.7592378462596937</v>
+      </c>
+      <c r="C459" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>0.1392103916470448</v>
+      </c>
+      <c r="B460" t="n">
+        <v>0.03133894928341241</v>
+      </c>
+      <c r="C460" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>0.2797813198583741</v>
+      </c>
+      <c r="B461" t="n">
+        <v>0.1287688074592101</v>
+      </c>
+      <c r="C461" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>0.1289228969885072</v>
+      </c>
+      <c r="B462" t="n">
+        <v>0.2458390777336506</v>
+      </c>
+      <c r="C462" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>0.2807416773921727</v>
+      </c>
+      <c r="B463" t="n">
+        <v>0.2221760233202218</v>
+      </c>
+      <c r="C463" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>0.8603501083972523</v>
+      </c>
+      <c r="B464" t="n">
+        <v>0.8529686225619604</v>
+      </c>
+      <c r="C464" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>0.8827210948401504</v>
+      </c>
+      <c r="B465" t="n">
+        <v>0.7133107638409557</v>
+      </c>
+      <c r="C465" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>0.7064183031191849</v>
+      </c>
+      <c r="B466" t="n">
+        <v>0.7680431625826958</v>
+      </c>
+      <c r="C466" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>0.760613902517812</v>
+      </c>
+      <c r="B467" t="n">
+        <v>0.8389590268041281</v>
+      </c>
+      <c r="C467" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>0.8108918926593163</v>
+      </c>
+      <c r="B468" t="n">
+        <v>0.7862574464737677</v>
+      </c>
+      <c r="C468" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>0.7672111263316079</v>
+      </c>
+      <c r="B469" t="n">
+        <v>0.8920185307436955</v>
+      </c>
+      <c r="C469" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>0.2060676679426323</v>
+      </c>
+      <c r="B470" t="n">
+        <v>0.01764615313566288</v>
+      </c>
+      <c r="C470" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>0.2676730999441125</v>
+      </c>
+      <c r="B471" t="n">
+        <v>0.01199379458677631</v>
+      </c>
+      <c r="C471" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>0.8887841558414552</v>
+      </c>
+      <c r="B472" t="n">
+        <v>0.8545129055365751</v>
+      </c>
+      <c r="C472" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>0.8912251032446739</v>
+      </c>
+      <c r="B473" t="n">
+        <v>0.7255719898960805</v>
+      </c>
+      <c r="C473" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>0.8000181754573601</v>
+      </c>
+      <c r="B474" t="n">
+        <v>0.7675283477735344</v>
+      </c>
+      <c r="C474" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>0.07455090907075382</v>
+      </c>
+      <c r="B475" t="n">
+        <v>0.2199397638092742</v>
+      </c>
+      <c r="C475" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>0.1824358319966418</v>
+      </c>
+      <c r="B476" t="n">
+        <v>0.1707868237281702</v>
+      </c>
+      <c r="C476" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>0.857215290077624</v>
+      </c>
+      <c r="B477" t="n">
+        <v>0.8811563632181429</v>
+      </c>
+      <c r="C477" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>0.8352720608272716</v>
+      </c>
+      <c r="B478" t="n">
+        <v>0.7713081310626445</v>
+      </c>
+      <c r="C478" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>0.2444529694127257</v>
+      </c>
+      <c r="B479" t="n">
+        <v>0.0007390548674082953</v>
+      </c>
+      <c r="C479" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>0.2116717753947877</v>
+      </c>
+      <c r="B480" t="n">
+        <v>0.1432664422381727</v>
+      </c>
+      <c r="C480" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>0.1329513708071332</v>
+      </c>
+      <c r="B481" t="n">
+        <v>0.2803333705403904</v>
+      </c>
+      <c r="C481" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>0.7178756735547545</v>
+      </c>
+      <c r="B482" t="n">
+        <v>0.7711023261864516</v>
+      </c>
+      <c r="C482" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>0.1025694871943752</v>
+      </c>
+      <c r="B483" t="n">
+        <v>0.1423033924298879</v>
+      </c>
+      <c r="C483" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>0.2143068140355362</v>
+      </c>
+      <c r="B484" t="n">
+        <v>0.06148211888408234</v>
+      </c>
+      <c r="C484" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>0.1668028262455109</v>
+      </c>
+      <c r="B485" t="n">
+        <v>0.06884875946840915</v>
+      </c>
+      <c r="C485" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>0.7766636642975709</v>
+      </c>
+      <c r="B486" t="n">
+        <v>0.814659554031571</v>
+      </c>
+      <c r="C486" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>0.1914108503659163</v>
+      </c>
+      <c r="B487" t="n">
+        <v>0.1084416035243182</v>
+      </c>
+      <c r="C487" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>0.1069714161842652</v>
+      </c>
+      <c r="B488" t="n">
+        <v>0.1672529182452757</v>
+      </c>
+      <c r="C488" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>0.7564123402014976</v>
+      </c>
+      <c r="B489" t="n">
+        <v>0.883542542148873</v>
+      </c>
+      <c r="C489" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>0.8574258203410418</v>
+      </c>
+      <c r="B490" t="n">
+        <v>0.7574411067574122</v>
+      </c>
+      <c r="C490" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>0.03902323875453759</v>
+      </c>
+      <c r="B491" t="n">
+        <v>0.2298266611864173</v>
+      </c>
+      <c r="C491" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>0.2437043804695637</v>
+      </c>
+      <c r="B492" t="n">
+        <v>0.2857899257106559</v>
+      </c>
+      <c r="C492" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>0.04699444353718849</v>
+      </c>
+      <c r="B493" t="n">
+        <v>0.2146649025213279</v>
+      </c>
+      <c r="C493" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>0.7254302457997119</v>
+      </c>
+      <c r="B494" t="n">
+        <v>0.7097438484682037</v>
+      </c>
+      <c r="C494" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>0.1346726824094888</v>
+      </c>
+      <c r="B495" t="n">
+        <v>0.1545219646898476</v>
+      </c>
+      <c r="C495" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>0.02890103460635797</v>
+      </c>
+      <c r="B496" t="n">
+        <v>0.03745519922116623</v>
+      </c>
+      <c r="C496" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>0.166410916108658</v>
+      </c>
+      <c r="B497" t="n">
+        <v>0.1860079431635542</v>
+      </c>
+      <c r="C497" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>0.8017096448689338</v>
+      </c>
+      <c r="B498" t="n">
+        <v>0.8843532971711663</v>
+      </c>
+      <c r="C498" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>0.02236099693072468</v>
+      </c>
+      <c r="B499" t="n">
+        <v>0.2471998148475877</v>
+      </c>
+      <c r="C499" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>0.7450760513643614</v>
+      </c>
+      <c r="B500" t="n">
+        <v>0.777302176931207</v>
+      </c>
+      <c r="C500" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>0.7188896976963713</v>
+      </c>
+      <c r="B501" t="n">
+        <v>0.8809789087602742</v>
+      </c>
+      <c r="C501" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
